--- a/Code/Results/Cases/Case_1_86/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_86/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.779869120201317</v>
+        <v>1.018363534966368</v>
       </c>
       <c r="D2">
-        <v>1.018387037361322</v>
+        <v>1.028858935399628</v>
       </c>
       <c r="E2">
-        <v>0.8116733272135753</v>
+        <v>1.019178495281031</v>
       </c>
       <c r="F2">
-        <v>0.8291695763425622</v>
+        <v>1.028562777917307</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034662114021496</v>
+        <v>1.030857377885566</v>
       </c>
       <c r="J2">
-        <v>0.8114528849048772</v>
+        <v>1.023572392774784</v>
       </c>
       <c r="K2">
-        <v>1.029596019616613</v>
+        <v>1.031674528738413</v>
       </c>
       <c r="L2">
-        <v>0.8265752141076416</v>
+        <v>1.02202251283487</v>
       </c>
       <c r="M2">
-        <v>0.8436636574863244</v>
+        <v>1.031379232221555</v>
       </c>
       <c r="N2">
-        <v>0.8126052410763889</v>
+        <v>1.025025982977921</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.829092716740691</v>
+        <v>1.022436101562407</v>
       </c>
       <c r="D3">
-        <v>1.023995043271209</v>
+        <v>1.029453748545057</v>
       </c>
       <c r="E3">
-        <v>0.8543599902733253</v>
+        <v>1.022759059100701</v>
       </c>
       <c r="F3">
-        <v>0.8711556947347217</v>
+        <v>1.032139263568543</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039334826944522</v>
+        <v>1.031145081514337</v>
       </c>
       <c r="J3">
-        <v>0.8556453114713337</v>
+        <v>1.027264935404385</v>
       </c>
       <c r="K3">
-        <v>1.034329839452815</v>
+        <v>1.032077940646395</v>
       </c>
       <c r="L3">
-        <v>0.8672716916388026</v>
+        <v>1.025401434221294</v>
       </c>
       <c r="M3">
-        <v>0.8837540355119884</v>
+        <v>1.034756233422951</v>
       </c>
       <c r="N3">
-        <v>0.8568604259575118</v>
+        <v>1.028723769441594</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.8538694169268132</v>
+        <v>1.025040311581058</v>
       </c>
       <c r="D4">
-        <v>1.027080838194199</v>
+        <v>1.029834334970225</v>
       </c>
       <c r="E4">
-        <v>0.8759238960153155</v>
+        <v>1.025047614207758</v>
       </c>
       <c r="F4">
-        <v>0.8925801266978421</v>
+        <v>1.034422139585006</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04176932049108</v>
+        <v>1.03132545639031</v>
       </c>
       <c r="J4">
-        <v>0.8779272575322845</v>
+        <v>1.029624304464952</v>
       </c>
       <c r="K4">
-        <v>1.036863048950857</v>
+        <v>1.0323339926566</v>
       </c>
       <c r="L4">
-        <v>0.8877929492361342</v>
+        <v>1.027559595598305</v>
       </c>
       <c r="M4">
-        <v>0.9041748121359228</v>
+        <v>1.036910101089983</v>
       </c>
       <c r="N4">
-        <v>0.8791740149376444</v>
+        <v>1.03108648907685</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.8632494236895513</v>
+        <v>1.026127953197794</v>
       </c>
       <c r="D5">
-        <v>1.028293401249436</v>
+        <v>1.029993319767554</v>
       </c>
       <c r="E5">
-        <v>0.8840980557605852</v>
+        <v>1.02600317184532</v>
       </c>
       <c r="F5">
-        <v>0.9007326806182556</v>
+        <v>1.035374573342712</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042701756120239</v>
+        <v>1.031399917506426</v>
       </c>
       <c r="J5">
-        <v>0.8863662930406534</v>
+        <v>1.030609248237686</v>
       </c>
       <c r="K5">
-        <v>1.037845583690691</v>
+        <v>1.032440459226045</v>
       </c>
       <c r="L5">
-        <v>0.8955644252584244</v>
+        <v>1.028460347792354</v>
       </c>
       <c r="M5">
-        <v>0.9119383727626289</v>
+        <v>1.037808309127689</v>
       </c>
       <c r="N5">
-        <v>0.8876250348444059</v>
+        <v>1.032072831582716</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.8647742765758298</v>
+        <v>1.026310159945959</v>
       </c>
       <c r="D6">
-        <v>1.02849277664974</v>
+        <v>1.030019954994815</v>
       </c>
       <c r="E6">
-        <v>0.8854273587885554</v>
+        <v>1.026163236462536</v>
       </c>
       <c r="F6">
-        <v>0.9020599495039733</v>
+        <v>1.035534070019931</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042853801084526</v>
+        <v>1.031412340097553</v>
       </c>
       <c r="J6">
-        <v>0.8877382895613806</v>
+        <v>1.030774224664462</v>
       </c>
       <c r="K6">
-        <v>1.038006454788315</v>
+        <v>1.032458266798297</v>
       </c>
       <c r="L6">
-        <v>0.8968278310534692</v>
+        <v>1.028611210824967</v>
       </c>
       <c r="M6">
-        <v>0.9132019224369951</v>
+        <v>1.037958701398689</v>
       </c>
       <c r="N6">
-        <v>0.8889989797575628</v>
+        <v>1.032238042294942</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.8539983075889892</v>
+        <v>1.02505487253426</v>
       </c>
       <c r="D7">
-        <v>1.027097337201924</v>
+        <v>1.029836463296352</v>
       </c>
       <c r="E7">
-        <v>0.8760361814898221</v>
+        <v>1.025060407861569</v>
       </c>
       <c r="F7">
-        <v>0.892692006180968</v>
+        <v>1.034434894401833</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041782097622466</v>
+        <v>1.031326456697921</v>
       </c>
       <c r="J7">
-        <v>0.8780432087664064</v>
+        <v>1.029637492274459</v>
       </c>
       <c r="K7">
-        <v>1.036876466081785</v>
+        <v>1.032335419875838</v>
       </c>
       <c r="L7">
-        <v>0.8878997321325349</v>
+        <v>1.027571656901599</v>
       </c>
       <c r="M7">
-        <v>0.9042813807377433</v>
+        <v>1.036922131313245</v>
       </c>
       <c r="N7">
-        <v>0.8792901308358184</v>
+        <v>1.031099695614559</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.7986039512671047</v>
+        <v>1.019746456540988</v>
       </c>
       <c r="D8">
-        <v>1.020437960567302</v>
+        <v>1.029060854403031</v>
       </c>
       <c r="E8">
-        <v>0.827892148016939</v>
+        <v>1.020394564003887</v>
       </c>
       <c r="F8">
-        <v>0.8450484040432645</v>
+        <v>1.02977809268843</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036411104032258</v>
+        <v>1.030955817905421</v>
       </c>
       <c r="J8">
-        <v>0.8282574296267287</v>
+        <v>1.024826651452261</v>
       </c>
       <c r="K8">
-        <v>1.031348024293603</v>
+        <v>1.031811904650622</v>
       </c>
       <c r="L8">
-        <v>0.8420484961066009</v>
+        <v>1.02317041380659</v>
       </c>
       <c r="M8">
-        <v>0.8588361099899747</v>
+        <v>1.032527110780854</v>
       </c>
       <c r="N8">
-        <v>0.8294336501792536</v>
+        <v>1.026282022846583</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.7986039512671047</v>
+        <v>1.010142865609482</v>
       </c>
       <c r="D9">
-        <v>1.020437960567302</v>
+        <v>1.027660506246793</v>
       </c>
       <c r="E9">
-        <v>0.827892148016939</v>
+        <v>1.01194537372912</v>
       </c>
       <c r="F9">
-        <v>0.8450484040432645</v>
+        <v>1.021321945548974</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036411104032258</v>
+        <v>1.030257556070363</v>
       </c>
       <c r="J9">
-        <v>0.8282574296267287</v>
+        <v>1.016108923881369</v>
       </c>
       <c r="K9">
-        <v>1.031348024293603</v>
+        <v>1.030850530692611</v>
       </c>
       <c r="L9">
-        <v>0.8420484961066009</v>
+        <v>1.015188470630364</v>
       </c>
       <c r="M9">
-        <v>0.8588361099899747</v>
+        <v>1.02453316042736</v>
       </c>
       <c r="N9">
-        <v>0.8294336501792536</v>
+        <v>1.017551915102603</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.7986039512671047</v>
+        <v>1.003555306664078</v>
       </c>
       <c r="D10">
-        <v>1.020437960567302</v>
+        <v>1.026703279827848</v>
       </c>
       <c r="E10">
-        <v>0.827892148016939</v>
+        <v>1.006144317794328</v>
       </c>
       <c r="F10">
-        <v>0.8450484040432645</v>
+        <v>1.015501429134079</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036411104032258</v>
+        <v>1.029760494865131</v>
       </c>
       <c r="J10">
-        <v>0.8282574296267287</v>
+        <v>1.010119429586317</v>
       </c>
       <c r="K10">
-        <v>1.031348024293603</v>
+        <v>1.030182426680671</v>
       </c>
       <c r="L10">
-        <v>0.8420484961066009</v>
+        <v>1.009700092204516</v>
       </c>
       <c r="M10">
-        <v>0.8588361099899747</v>
+        <v>1.019021901790512</v>
       </c>
       <c r="N10">
-        <v>0.8294336501792536</v>
+        <v>1.011553915038647</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7986039512671047</v>
+        <v>1.000654802644803</v>
       </c>
       <c r="D11">
-        <v>1.020437960567302</v>
+        <v>1.026282926516313</v>
       </c>
       <c r="E11">
-        <v>0.827892148016939</v>
+        <v>1.003588867804939</v>
       </c>
       <c r="F11">
-        <v>0.8450484040432645</v>
+        <v>1.012934168737142</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036411104032258</v>
+        <v>1.029537493196719</v>
       </c>
       <c r="J11">
-        <v>0.8282574296267287</v>
+        <v>1.007479997200861</v>
       </c>
       <c r="K11">
-        <v>1.031348024293603</v>
+        <v>1.029886430674151</v>
       </c>
       <c r="L11">
-        <v>0.8420484961066009</v>
+        <v>1.007280435599082</v>
       </c>
       <c r="M11">
-        <v>0.8588361099899747</v>
+        <v>1.016588941637062</v>
       </c>
       <c r="N11">
-        <v>0.8294336501792536</v>
+        <v>1.008910734356457</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7986039512671047</v>
+        <v>0.9995698392296042</v>
       </c>
       <c r="D12">
-        <v>1.020437960567302</v>
+        <v>1.026125884061977</v>
       </c>
       <c r="E12">
-        <v>0.827892148016939</v>
+        <v>1.002632791080093</v>
       </c>
       <c r="F12">
-        <v>0.8450484040432645</v>
+        <v>1.011973208425337</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036411104032258</v>
+        <v>1.029453467136003</v>
       </c>
       <c r="J12">
-        <v>0.8282574296267287</v>
+        <v>1.006492353122088</v>
       </c>
       <c r="K12">
-        <v>1.031348024293603</v>
+        <v>1.029775454762114</v>
       </c>
       <c r="L12">
-        <v>0.8420484961066009</v>
+        <v>1.006374869786914</v>
       </c>
       <c r="M12">
-        <v>0.8588361099899747</v>
+        <v>1.015677935751724</v>
       </c>
       <c r="N12">
-        <v>0.8294336501792536</v>
+        <v>1.007921687709808</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7986039512671047</v>
+        <v>0.9998029170191616</v>
       </c>
       <c r="D13">
-        <v>1.020437960567302</v>
+        <v>1.026159611515278</v>
       </c>
       <c r="E13">
-        <v>0.827892148016939</v>
+        <v>1.002838189015253</v>
       </c>
       <c r="F13">
-        <v>0.8450484040432645</v>
+        <v>1.012179676187265</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036411104032258</v>
+        <v>1.029471545441219</v>
       </c>
       <c r="J13">
-        <v>0.8282574296267287</v>
+        <v>1.006704539451712</v>
       </c>
       <c r="K13">
-        <v>1.031348024293603</v>
+        <v>1.029799306453944</v>
       </c>
       <c r="L13">
-        <v>0.8420484961066009</v>
+        <v>1.006569429558277</v>
       </c>
       <c r="M13">
-        <v>0.8588361099899747</v>
+        <v>1.015873684802873</v>
       </c>
       <c r="N13">
-        <v>0.8294336501792536</v>
+        <v>1.008134175368359</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7986039512671047</v>
+        <v>1.000565276200375</v>
       </c>
       <c r="D14">
-        <v>1.020437960567302</v>
+        <v>1.026269963927012</v>
       </c>
       <c r="E14">
-        <v>0.827892148016939</v>
+        <v>1.0035099802644</v>
       </c>
       <c r="F14">
-        <v>0.8450484040432645</v>
+        <v>1.012854887579912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036411104032258</v>
+        <v>1.029530572073723</v>
       </c>
       <c r="J14">
-        <v>0.8282574296267287</v>
+        <v>1.007398507975828</v>
       </c>
       <c r="K14">
-        <v>1.031348024293603</v>
+        <v>1.029877278515026</v>
       </c>
       <c r="L14">
-        <v>0.8420484961066009</v>
+        <v>1.007205721789445</v>
       </c>
       <c r="M14">
-        <v>0.8588361099899747</v>
+        <v>1.016513788249618</v>
       </c>
       <c r="N14">
-        <v>0.8294336501792536</v>
+        <v>1.008829129407377</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7986039512671047</v>
+        <v>1.001033974158023</v>
       </c>
       <c r="D15">
-        <v>1.020437960567302</v>
+        <v>1.02633783512522</v>
       </c>
       <c r="E15">
-        <v>0.827892148016939</v>
+        <v>1.003922972837187</v>
       </c>
       <c r="F15">
-        <v>0.8450484040432645</v>
+        <v>1.013269921962362</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036411104032258</v>
+        <v>1.02956678140897</v>
       </c>
       <c r="J15">
-        <v>0.8282574296267287</v>
+        <v>1.007825114905176</v>
       </c>
       <c r="K15">
-        <v>1.031348024293603</v>
+        <v>1.029925182510508</v>
       </c>
       <c r="L15">
-        <v>0.8420484961066009</v>
+        <v>1.007596852013053</v>
       </c>
       <c r="M15">
-        <v>0.8588361099899747</v>
+        <v>1.016907200987294</v>
       </c>
       <c r="N15">
-        <v>0.8294336501792536</v>
+        <v>1.009256342167497</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.7986039512671047</v>
+        <v>1.003746760223723</v>
       </c>
       <c r="D16">
-        <v>1.020437960567302</v>
+        <v>1.026731051734019</v>
       </c>
       <c r="E16">
-        <v>0.827892148016939</v>
+        <v>1.006312969557183</v>
       </c>
       <c r="F16">
-        <v>0.8450484040432645</v>
+        <v>1.015670794406423</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036411104032258</v>
+        <v>1.029775128854896</v>
       </c>
       <c r="J16">
-        <v>0.8282574296267287</v>
+        <v>1.010293603517454</v>
       </c>
       <c r="K16">
-        <v>1.031348024293603</v>
+        <v>1.030201927825205</v>
       </c>
       <c r="L16">
-        <v>0.8420484961066009</v>
+        <v>1.009859741187768</v>
       </c>
       <c r="M16">
-        <v>0.8588361099899747</v>
+        <v>1.019182363117069</v>
       </c>
       <c r="N16">
-        <v>0.8294336501792536</v>
+        <v>1.011728336316745</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.7986039512671047</v>
+        <v>1.005435301172917</v>
       </c>
       <c r="D17">
-        <v>1.020437960567302</v>
+        <v>1.026976119320999</v>
       </c>
       <c r="E17">
-        <v>0.827892148016939</v>
+        <v>1.007800266019449</v>
       </c>
       <c r="F17">
-        <v>0.8450484040432645</v>
+        <v>1.017164015043088</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036411104032258</v>
+        <v>1.029903721415655</v>
       </c>
       <c r="J17">
-        <v>0.8282574296267287</v>
+        <v>1.011829487139533</v>
       </c>
       <c r="K17">
-        <v>1.031348024293603</v>
+        <v>1.030373712656494</v>
       </c>
       <c r="L17">
-        <v>0.8420484961066009</v>
+        <v>1.011267421533571</v>
       </c>
       <c r="M17">
-        <v>0.8588361099899747</v>
+        <v>1.02059684077031</v>
       </c>
       <c r="N17">
-        <v>0.8294336501792536</v>
+        <v>1.013266401069735</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.7986039512671047</v>
+        <v>1.00641558848173</v>
       </c>
       <c r="D18">
-        <v>1.020437960567302</v>
+        <v>1.027118498541419</v>
       </c>
       <c r="E18">
-        <v>0.827892148016939</v>
+        <v>1.008663601303077</v>
       </c>
       <c r="F18">
-        <v>0.8450484040432645</v>
+        <v>1.018030478480373</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036411104032258</v>
+        <v>1.029977979319057</v>
       </c>
       <c r="J18">
-        <v>0.8282574296267287</v>
+        <v>1.012720933122862</v>
       </c>
       <c r="K18">
-        <v>1.031348024293603</v>
+        <v>1.030473266750314</v>
       </c>
       <c r="L18">
-        <v>0.8420484961066009</v>
+        <v>1.012084356109977</v>
       </c>
       <c r="M18">
-        <v>0.8588361099899747</v>
+        <v>1.021417411591735</v>
       </c>
       <c r="N18">
-        <v>0.8294336501792536</v>
+        <v>1.014159113008611</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.7986039512671047</v>
+        <v>1.006749070062402</v>
       </c>
       <c r="D19">
-        <v>1.020437960567302</v>
+        <v>1.027166951092453</v>
       </c>
       <c r="E19">
-        <v>0.827892148016939</v>
+        <v>1.008957277005795</v>
       </c>
       <c r="F19">
-        <v>0.8450484040432645</v>
+        <v>1.018325164937859</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036411104032258</v>
+        <v>1.030003173239246</v>
       </c>
       <c r="J19">
-        <v>0.8282574296267287</v>
+        <v>1.013024155352339</v>
       </c>
       <c r="K19">
-        <v>1.031348024293603</v>
+        <v>1.030507103377382</v>
       </c>
       <c r="L19">
-        <v>0.8420484961066009</v>
+        <v>1.012362216500718</v>
       </c>
       <c r="M19">
-        <v>0.8588361099899747</v>
+        <v>1.021696455780973</v>
       </c>
       <c r="N19">
-        <v>0.8294336501792536</v>
+        <v>1.014462765848434</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.7986039512671047</v>
+        <v>1.005254616153952</v>
       </c>
       <c r="D20">
-        <v>1.020437960567302</v>
+        <v>1.026949884444738</v>
       </c>
       <c r="E20">
-        <v>0.827892148016939</v>
+        <v>1.0076411277975</v>
       </c>
       <c r="F20">
-        <v>0.8450484040432645</v>
+        <v>1.017004274986595</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036411104032258</v>
+        <v>1.029890002198405</v>
       </c>
       <c r="J20">
-        <v>0.8282574296267287</v>
+        <v>1.011665159797827</v>
       </c>
       <c r="K20">
-        <v>1.031348024293603</v>
+        <v>1.030355348655876</v>
       </c>
       <c r="L20">
-        <v>0.8420484961066009</v>
+        <v>1.011116821357669</v>
       </c>
       <c r="M20">
-        <v>0.8588361099899747</v>
+        <v>1.020445545204286</v>
       </c>
       <c r="N20">
-        <v>0.8294336501792536</v>
+        <v>1.013101840364355</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7986039512671047</v>
+        <v>1.000340992916277</v>
       </c>
       <c r="D21">
-        <v>1.020437960567302</v>
+        <v>1.026237493051955</v>
       </c>
       <c r="E21">
-        <v>0.827892148016939</v>
+        <v>1.003312346792953</v>
       </c>
       <c r="F21">
-        <v>0.8450484040432645</v>
+        <v>1.012656260574973</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036411104032258</v>
+        <v>1.029513223357308</v>
       </c>
       <c r="J21">
-        <v>0.8282574296267287</v>
+        <v>1.007194354249149</v>
       </c>
       <c r="K21">
-        <v>1.031348024293603</v>
+        <v>1.029854346304143</v>
       </c>
       <c r="L21">
-        <v>0.8420484961066009</v>
+        <v>1.007018539838946</v>
       </c>
       <c r="M21">
-        <v>0.8588361099899747</v>
+        <v>1.016325497656357</v>
       </c>
       <c r="N21">
-        <v>0.8294336501792536</v>
+        <v>1.00862468575899</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7986039512671047</v>
+        <v>0.9972075102887076</v>
       </c>
       <c r="D22">
-        <v>1.020437960567302</v>
+        <v>1.025784338744477</v>
       </c>
       <c r="E22">
-        <v>0.827892148016939</v>
+        <v>1.00055075638638</v>
       </c>
       <c r="F22">
-        <v>0.8450484040432645</v>
+        <v>1.009879710007049</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036411104032258</v>
+        <v>1.029269409598919</v>
       </c>
       <c r="J22">
-        <v>0.8282574296267287</v>
+        <v>1.004341304478934</v>
       </c>
       <c r="K22">
-        <v>1.031348024293603</v>
+        <v>1.029533375806283</v>
       </c>
       <c r="L22">
-        <v>0.8420484961066009</v>
+        <v>1.004402291311703</v>
       </c>
       <c r="M22">
-        <v>0.8588361099899747</v>
+        <v>1.013692685785617</v>
       </c>
       <c r="N22">
-        <v>0.8294336501792536</v>
+        <v>1.005767584330851</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7986039512671047</v>
+        <v>0.99887293614132</v>
       </c>
       <c r="D23">
-        <v>1.020437960567302</v>
+        <v>1.026025069629904</v>
       </c>
       <c r="E23">
-        <v>0.827892148016939</v>
+        <v>1.002018624015618</v>
       </c>
       <c r="F23">
-        <v>0.8450484040432645</v>
+        <v>1.011355776018105</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036411104032258</v>
+        <v>1.029399324616227</v>
       </c>
       <c r="J23">
-        <v>0.8282574296267287</v>
+        <v>1.005857866295638</v>
       </c>
       <c r="K23">
-        <v>1.031348024293603</v>
+        <v>1.029704102225321</v>
       </c>
       <c r="L23">
-        <v>0.8420484961066009</v>
+        <v>1.005793067118073</v>
       </c>
       <c r="M23">
-        <v>0.8588361099899747</v>
+        <v>1.015092510884566</v>
       </c>
       <c r="N23">
-        <v>0.8294336501792536</v>
+        <v>1.007286299839288</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.7986039512671047</v>
+        <v>1.005336274157109</v>
       </c>
       <c r="D24">
-        <v>1.020437960567302</v>
+        <v>1.026961740599293</v>
       </c>
       <c r="E24">
-        <v>0.827892148016939</v>
+        <v>1.007713048403275</v>
       </c>
       <c r="F24">
-        <v>0.8450484040432645</v>
+        <v>1.017076468547901</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036411104032258</v>
+        <v>1.029896203631762</v>
       </c>
       <c r="J24">
-        <v>0.8282574296267287</v>
+        <v>1.011739425851277</v>
       </c>
       <c r="K24">
-        <v>1.031348024293603</v>
+        <v>1.030363648549301</v>
       </c>
       <c r="L24">
-        <v>0.8420484961066009</v>
+        <v>1.011184883871151</v>
       </c>
       <c r="M24">
-        <v>0.8588361099899747</v>
+        <v>1.020513922950725</v>
       </c>
       <c r="N24">
-        <v>0.8294336501792536</v>
+        <v>1.01317621188412</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.7986039512671047</v>
+        <v>1.012656933568266</v>
       </c>
       <c r="D25">
-        <v>1.020437960567302</v>
+        <v>1.028026619477224</v>
       </c>
       <c r="E25">
-        <v>0.827892148016939</v>
+        <v>1.014158177687067</v>
       </c>
       <c r="F25">
-        <v>0.8450484040432645</v>
+        <v>1.023539203625232</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036411104032258</v>
+        <v>1.03044354334937</v>
       </c>
       <c r="J25">
-        <v>0.8282574296267287</v>
+        <v>1.018392760721128</v>
       </c>
       <c r="K25">
-        <v>1.031348024293603</v>
+        <v>1.031103780366417</v>
       </c>
       <c r="L25">
-        <v>0.8420484961066009</v>
+        <v>1.01728031133148</v>
       </c>
       <c r="M25">
-        <v>0.8588361099899747</v>
+        <v>1.026630770301134</v>
       </c>
       <c r="N25">
-        <v>0.8294336501792536</v>
+        <v>1.019838995252635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_86/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_86/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018363534966368</v>
+        <v>0.7798691202013107</v>
       </c>
       <c r="D2">
-        <v>1.028858935399628</v>
+        <v>1.018387037361322</v>
       </c>
       <c r="E2">
-        <v>1.019178495281031</v>
+        <v>0.8116733272135698</v>
       </c>
       <c r="F2">
-        <v>1.028562777917307</v>
+        <v>0.8291695763425569</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030857377885566</v>
+        <v>1.034662114021495</v>
       </c>
       <c r="J2">
-        <v>1.023572392774784</v>
+        <v>0.8114528849048713</v>
       </c>
       <c r="K2">
-        <v>1.031674528738413</v>
+        <v>1.029596019616612</v>
       </c>
       <c r="L2">
-        <v>1.02202251283487</v>
+        <v>0.8265752141076365</v>
       </c>
       <c r="M2">
-        <v>1.031379232221555</v>
+        <v>0.8436636574863196</v>
       </c>
       <c r="N2">
-        <v>1.025025982977921</v>
+        <v>0.8126052410763829</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022436101562407</v>
+        <v>0.8290927167406912</v>
       </c>
       <c r="D3">
-        <v>1.029453748545057</v>
+        <v>1.023995043271208</v>
       </c>
       <c r="E3">
-        <v>1.022759059100701</v>
+        <v>0.8543599902733254</v>
       </c>
       <c r="F3">
-        <v>1.032139263568543</v>
+        <v>0.8711556947347214</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031145081514337</v>
+        <v>1.039334826944522</v>
       </c>
       <c r="J3">
-        <v>1.027264935404385</v>
+        <v>0.8556453114713337</v>
       </c>
       <c r="K3">
-        <v>1.032077940646395</v>
+        <v>1.034329839452815</v>
       </c>
       <c r="L3">
-        <v>1.025401434221294</v>
+        <v>0.8672716916388025</v>
       </c>
       <c r="M3">
-        <v>1.034756233422951</v>
+        <v>0.8837540355119882</v>
       </c>
       <c r="N3">
-        <v>1.028723769441594</v>
+        <v>0.8568604259575121</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025040311581058</v>
+        <v>0.8538694169268165</v>
       </c>
       <c r="D4">
-        <v>1.029834334970225</v>
+        <v>1.027080838194199</v>
       </c>
       <c r="E4">
-        <v>1.025047614207758</v>
+        <v>0.8759238960153191</v>
       </c>
       <c r="F4">
-        <v>1.034422139585006</v>
+        <v>0.8925801266978447</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03132545639031</v>
+        <v>1.04176932049108</v>
       </c>
       <c r="J4">
-        <v>1.029624304464952</v>
+        <v>0.8779272575322878</v>
       </c>
       <c r="K4">
-        <v>1.0323339926566</v>
+        <v>1.036863048950857</v>
       </c>
       <c r="L4">
-        <v>1.027559595598305</v>
+        <v>0.8877929492361376</v>
       </c>
       <c r="M4">
-        <v>1.036910101089983</v>
+        <v>0.9041748121359254</v>
       </c>
       <c r="N4">
-        <v>1.03108648907685</v>
+        <v>0.8791740149376475</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026127953197794</v>
+        <v>0.8632494236895562</v>
       </c>
       <c r="D5">
-        <v>1.029993319767554</v>
+        <v>1.028293401249435</v>
       </c>
       <c r="E5">
-        <v>1.02600317184532</v>
+        <v>0.8840980557605892</v>
       </c>
       <c r="F5">
-        <v>1.035374573342712</v>
+        <v>0.900732680618259</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031399917506426</v>
+        <v>1.042701756120239</v>
       </c>
       <c r="J5">
-        <v>1.030609248237686</v>
+        <v>0.8863662930406577</v>
       </c>
       <c r="K5">
-        <v>1.032440459226045</v>
+        <v>1.037845583690691</v>
       </c>
       <c r="L5">
-        <v>1.028460347792354</v>
+        <v>0.8955644252584283</v>
       </c>
       <c r="M5">
-        <v>1.037808309127689</v>
+        <v>0.9119383727626322</v>
       </c>
       <c r="N5">
-        <v>1.032072831582716</v>
+        <v>0.8876250348444102</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026310159945959</v>
+        <v>0.8647742765758295</v>
       </c>
       <c r="D6">
-        <v>1.030019954994815</v>
+        <v>1.02849277664974</v>
       </c>
       <c r="E6">
-        <v>1.026163236462536</v>
+        <v>0.8854273587885551</v>
       </c>
       <c r="F6">
-        <v>1.035534070019931</v>
+        <v>0.9020599495039731</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031412340097553</v>
+        <v>1.042853801084526</v>
       </c>
       <c r="J6">
-        <v>1.030774224664462</v>
+        <v>0.8877382895613806</v>
       </c>
       <c r="K6">
-        <v>1.032458266798297</v>
+        <v>1.038006454788315</v>
       </c>
       <c r="L6">
-        <v>1.028611210824967</v>
+        <v>0.8968278310534687</v>
       </c>
       <c r="M6">
-        <v>1.037958701398689</v>
+        <v>0.9132019224369949</v>
       </c>
       <c r="N6">
-        <v>1.032238042294942</v>
+        <v>0.8889989797575627</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02505487253426</v>
+        <v>0.8539983075889872</v>
       </c>
       <c r="D7">
-        <v>1.029836463296352</v>
+        <v>1.027097337201925</v>
       </c>
       <c r="E7">
-        <v>1.025060407861569</v>
+        <v>0.8760361814898205</v>
       </c>
       <c r="F7">
-        <v>1.034434894401833</v>
+        <v>0.8926920061809666</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031326456697921</v>
+        <v>1.041782097622467</v>
       </c>
       <c r="J7">
-        <v>1.029637492274459</v>
+        <v>0.8780432087664046</v>
       </c>
       <c r="K7">
-        <v>1.032335419875838</v>
+        <v>1.036876466081786</v>
       </c>
       <c r="L7">
-        <v>1.027571656901599</v>
+        <v>0.8878997321325333</v>
       </c>
       <c r="M7">
-        <v>1.036922131313245</v>
+        <v>0.9042813807377419</v>
       </c>
       <c r="N7">
-        <v>1.031099695614559</v>
+        <v>0.8792901308358168</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019746456540988</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D8">
-        <v>1.029060854403031</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E8">
-        <v>1.020394564003887</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F8">
-        <v>1.02977809268843</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030955817905421</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J8">
-        <v>1.024826651452261</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K8">
-        <v>1.031811904650622</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L8">
-        <v>1.02317041380659</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M8">
-        <v>1.032527110780854</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N8">
-        <v>1.026282022846583</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010142865609482</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D9">
-        <v>1.027660506246793</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E9">
-        <v>1.01194537372912</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F9">
-        <v>1.021321945548974</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030257556070363</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J9">
-        <v>1.016108923881369</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K9">
-        <v>1.030850530692611</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L9">
-        <v>1.015188470630364</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M9">
-        <v>1.02453316042736</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N9">
-        <v>1.017551915102603</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003555306664078</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D10">
-        <v>1.026703279827848</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E10">
-        <v>1.006144317794328</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F10">
-        <v>1.015501429134079</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029760494865131</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J10">
-        <v>1.010119429586317</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K10">
-        <v>1.030182426680671</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L10">
-        <v>1.009700092204516</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M10">
-        <v>1.019021901790512</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N10">
-        <v>1.011553915038647</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000654802644803</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D11">
-        <v>1.026282926516313</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E11">
-        <v>1.003588867804939</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F11">
-        <v>1.012934168737142</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029537493196719</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J11">
-        <v>1.007479997200861</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K11">
-        <v>1.029886430674151</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L11">
-        <v>1.007280435599082</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M11">
-        <v>1.016588941637062</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N11">
-        <v>1.008910734356457</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9995698392296042</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D12">
-        <v>1.026125884061977</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E12">
-        <v>1.002632791080093</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F12">
-        <v>1.011973208425337</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029453467136003</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J12">
-        <v>1.006492353122088</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K12">
-        <v>1.029775454762114</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L12">
-        <v>1.006374869786914</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M12">
-        <v>1.015677935751724</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N12">
-        <v>1.007921687709808</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9998029170191616</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D13">
-        <v>1.026159611515278</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E13">
-        <v>1.002838189015253</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F13">
-        <v>1.012179676187265</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029471545441219</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J13">
-        <v>1.006704539451712</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K13">
-        <v>1.029799306453944</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L13">
-        <v>1.006569429558277</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M13">
-        <v>1.015873684802873</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N13">
-        <v>1.008134175368359</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000565276200375</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D14">
-        <v>1.026269963927012</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E14">
-        <v>1.0035099802644</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F14">
-        <v>1.012854887579912</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029530572073723</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J14">
-        <v>1.007398507975828</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K14">
-        <v>1.029877278515026</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L14">
-        <v>1.007205721789445</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M14">
-        <v>1.016513788249618</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N14">
-        <v>1.008829129407377</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001033974158023</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D15">
-        <v>1.02633783512522</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E15">
-        <v>1.003922972837187</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F15">
-        <v>1.013269921962362</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02956678140897</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J15">
-        <v>1.007825114905176</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K15">
-        <v>1.029925182510508</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L15">
-        <v>1.007596852013053</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M15">
-        <v>1.016907200987294</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N15">
-        <v>1.009256342167497</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003746760223723</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D16">
-        <v>1.026731051734019</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E16">
-        <v>1.006312969557183</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F16">
-        <v>1.015670794406423</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029775128854896</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J16">
-        <v>1.010293603517454</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K16">
-        <v>1.030201927825205</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L16">
-        <v>1.009859741187768</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M16">
-        <v>1.019182363117069</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N16">
-        <v>1.011728336316745</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005435301172917</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D17">
-        <v>1.026976119320999</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E17">
-        <v>1.007800266019449</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F17">
-        <v>1.017164015043088</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029903721415655</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J17">
-        <v>1.011829487139533</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K17">
-        <v>1.030373712656494</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L17">
-        <v>1.011267421533571</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M17">
-        <v>1.02059684077031</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N17">
-        <v>1.013266401069735</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00641558848173</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D18">
-        <v>1.027118498541419</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E18">
-        <v>1.008663601303077</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F18">
-        <v>1.018030478480373</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029977979319057</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J18">
-        <v>1.012720933122862</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K18">
-        <v>1.030473266750314</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L18">
-        <v>1.012084356109977</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M18">
-        <v>1.021417411591735</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N18">
-        <v>1.014159113008611</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006749070062402</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D19">
-        <v>1.027166951092453</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E19">
-        <v>1.008957277005795</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F19">
-        <v>1.018325164937859</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030003173239246</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J19">
-        <v>1.013024155352339</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K19">
-        <v>1.030507103377382</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L19">
-        <v>1.012362216500718</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M19">
-        <v>1.021696455780973</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N19">
-        <v>1.014462765848434</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005254616153952</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D20">
-        <v>1.026949884444738</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E20">
-        <v>1.0076411277975</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F20">
-        <v>1.017004274986595</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029890002198405</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J20">
-        <v>1.011665159797827</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K20">
-        <v>1.030355348655876</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L20">
-        <v>1.011116821357669</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M20">
-        <v>1.020445545204286</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N20">
-        <v>1.013101840364355</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000340992916277</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D21">
-        <v>1.026237493051955</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E21">
-        <v>1.003312346792953</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F21">
-        <v>1.012656260574973</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029513223357308</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J21">
-        <v>1.007194354249149</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K21">
-        <v>1.029854346304143</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L21">
-        <v>1.007018539838946</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M21">
-        <v>1.016325497656357</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N21">
-        <v>1.00862468575899</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9972075102887076</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D22">
-        <v>1.025784338744477</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E22">
-        <v>1.00055075638638</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F22">
-        <v>1.009879710007049</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029269409598919</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J22">
-        <v>1.004341304478934</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K22">
-        <v>1.029533375806283</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L22">
-        <v>1.004402291311703</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M22">
-        <v>1.013692685785617</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N22">
-        <v>1.005767584330851</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.99887293614132</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D23">
-        <v>1.026025069629904</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E23">
-        <v>1.002018624015618</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F23">
-        <v>1.011355776018105</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029399324616227</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J23">
-        <v>1.005857866295638</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K23">
-        <v>1.029704102225321</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L23">
-        <v>1.005793067118073</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M23">
-        <v>1.015092510884566</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N23">
-        <v>1.007286299839288</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005336274157109</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D24">
-        <v>1.026961740599293</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E24">
-        <v>1.007713048403275</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F24">
-        <v>1.017076468547901</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029896203631762</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J24">
-        <v>1.011739425851277</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K24">
-        <v>1.030363648549301</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L24">
-        <v>1.011184883871151</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M24">
-        <v>1.020513922950725</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N24">
-        <v>1.01317621188412</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012656933568266</v>
+        <v>0.7986039512671046</v>
       </c>
       <c r="D25">
-        <v>1.028026619477224</v>
+        <v>1.020437960567303</v>
       </c>
       <c r="E25">
-        <v>1.014158177687067</v>
+        <v>0.8278921480169387</v>
       </c>
       <c r="F25">
-        <v>1.023539203625232</v>
+        <v>0.8450484040432646</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03044354334937</v>
+        <v>1.036411104032259</v>
       </c>
       <c r="J25">
-        <v>1.018392760721128</v>
+        <v>0.8282574296267287</v>
       </c>
       <c r="K25">
-        <v>1.031103780366417</v>
+        <v>1.031348024293604</v>
       </c>
       <c r="L25">
-        <v>1.01728031133148</v>
+        <v>0.8420484961066008</v>
       </c>
       <c r="M25">
-        <v>1.026630770301134</v>
+        <v>0.8588361099899747</v>
       </c>
       <c r="N25">
-        <v>1.019838995252635</v>
+        <v>0.8294336501792534</v>
       </c>
     </row>
   </sheetData>
